--- a/appinv/out/09102989061-3.xlsx
+++ b/appinv/out/09102989061-3.xlsx
@@ -718,17 +718,16 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s"/>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7">
+      <c r="E4" s="7">
         <v>110</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -737,17 +736,16 @@
       <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s"/>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7">
+      <c r="E5" s="7">
         <v>-2.7e+01</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -838,17 +836,16 @@
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s"/>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7">
+      <c r="E9" s="7">
         <v>65</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -939,17 +936,16 @@
       <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s"/>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="7">
+      <c r="E13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1040,17 +1036,16 @@
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s"/>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="7">
+      <c r="E17" s="7">
         <v>130</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1141,17 +1136,16 @@
       <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s"/>
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="7">
+      <c r="E21" s="7">
         <v>28</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1242,17 +1236,16 @@
       <c r="B25" s="6">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s"/>
+      <c r="C25" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="7">
+      <c r="E25" s="7">
         <v>55</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1343,17 +1336,16 @@
       <c r="B29" s="6">
         <v>1</v>
       </c>
-      <c r="C29" s="6" t="s"/>
+      <c r="C29" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="7">
+      <c r="E29" s="7">
         <v>70</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1362,17 +1354,16 @@
       <c r="B30" s="6">
         <v>2</v>
       </c>
-      <c r="C30" s="6" t="s"/>
+      <c r="C30" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="7">
+      <c r="E30" s="7">
         <v>-1.1e+01</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1381,17 +1372,16 @@
       <c r="B31" s="6">
         <v>3</v>
       </c>
-      <c r="C31" s="6" t="s"/>
+      <c r="C31" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="7">
+      <c r="E31" s="7">
         <v>30</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1400,17 +1390,16 @@
       <c r="B32" s="6">
         <v>4</v>
       </c>
-      <c r="C32" s="6" t="s"/>
+      <c r="C32" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="7">
+      <c r="E32" s="7">
         <v>65</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1501,17 +1490,16 @@
       <c r="B36" s="6">
         <v>1</v>
       </c>
-      <c r="C36" s="6" t="s"/>
+      <c r="C36" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="7">
+      <c r="E36" s="7">
         <v>110</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1520,17 +1508,16 @@
       <c r="B37" s="6">
         <v>2</v>
       </c>
-      <c r="C37" s="6" t="s"/>
+      <c r="C37" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="7">
+      <c r="E37" s="7">
         <v>-2.7e+01</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1539,17 +1526,16 @@
       <c r="B38" s="6">
         <v>3</v>
       </c>
-      <c r="C38" s="6" t="s"/>
+      <c r="C38" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="7">
+      <c r="E38" s="7">
         <v>-6e+00</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1640,17 +1626,16 @@
       <c r="B42" s="6">
         <v>1</v>
       </c>
-      <c r="C42" s="6" t="s"/>
+      <c r="C42" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="7">
+      <c r="E42" s="7">
         <v>270</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1659,17 +1644,16 @@
       <c r="B43" s="6">
         <v>2</v>
       </c>
-      <c r="C43" s="6" t="s"/>
+      <c r="C43" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="7">
+      <c r="E43" s="7">
         <v>-3e+01</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1760,17 +1744,16 @@
       <c r="B47" s="6">
         <v>1</v>
       </c>
-      <c r="C47" s="6" t="s"/>
+      <c r="C47" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="7">
+      <c r="E47" s="7">
         <v>25</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1861,17 +1844,16 @@
       <c r="B51" s="6">
         <v>1</v>
       </c>
-      <c r="C51" s="6" t="s"/>
+      <c r="C51" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="7">
+      <c r="E51" s="7">
         <v>29</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1962,17 +1944,16 @@
       <c r="B55" s="6">
         <v>1</v>
       </c>
-      <c r="C55" s="6" t="s"/>
+      <c r="C55" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D55" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F55" s="7">
+      <c r="E55" s="7">
         <v>110</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1981,17 +1962,16 @@
       <c r="B56" s="6">
         <v>2</v>
       </c>
-      <c r="C56" s="6" t="s"/>
+      <c r="C56" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="7">
+      <c r="E56" s="7">
         <v>-2.7e+01</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2082,17 +2062,16 @@
       <c r="B60" s="6">
         <v>1</v>
       </c>
-      <c r="C60" s="6" t="s"/>
+      <c r="C60" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="7">
+      <c r="E60" s="7">
         <v>29</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2101,17 +2080,16 @@
       <c r="B61" s="6">
         <v>2</v>
       </c>
-      <c r="C61" s="6" t="s"/>
+      <c r="C61" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D61" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F61" s="7">
+      <c r="E61" s="7">
         <v>25</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2202,17 +2180,16 @@
       <c r="B65" s="6">
         <v>1</v>
       </c>
-      <c r="C65" s="6" t="s"/>
+      <c r="C65" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="7">
+      <c r="E65" s="7">
         <v>679</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>62</v>
       </c>
     </row>

--- a/appinv/out/09102989061-3.xlsx
+++ b/appinv/out/09102989061-3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>項次</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>【企鵝寶寶】ARC-956A變頻冷氣萬用遙控器</t>
+  </si>
+  <si>
+    <t>發票 1 至 14 累計金額：</t>
   </si>
 </sst>
 </file>
@@ -212,17 +215,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_($* #,##0.0_);_($* (#,##0.0);_($* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0 ;[red]-#,##0.0 "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="0"/>
       <charset val="0"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <b/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none">
         <fgColor rgb="FFFFFFFF"/>
@@ -242,8 +253,13 @@
         <fgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -256,15 +272,18 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
@@ -280,6 +299,15 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="2" fillId="4" fontId="1" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -611,7 +639,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -632,1568 +660,1583 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>42918</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s"/>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s"/>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>110</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s"/>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>-2.7e+01</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>42919</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s"/>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s"/>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>65</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>42921</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s"/>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s"/>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>20</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>42921</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s"/>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s"/>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>130</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>42921</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s"/>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s"/>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>28</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>42922</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s"/>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s"/>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>55</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>7</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>42926</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>154</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s"/>
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s"/>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>70</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s"/>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>2</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>-1.1e+01</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s"/>
-      <c r="B31" s="6">
-        <v>3</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>30</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s"/>
-      <c r="B32" s="6">
+      <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>65</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>8</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>42928</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s"/>
-      <c r="B35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s"/>
-      <c r="B36" s="6">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>110</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s"/>
-      <c r="B37" s="6">
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>-2.7e+01</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s"/>
-      <c r="B38" s="6">
-        <v>3</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>-6e+00</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40">
         <v>9</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>42928</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <v>240</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s"/>
-      <c r="B41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s"/>
-      <c r="B42" s="6">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>270</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s"/>
-      <c r="B43" s="6">
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>-3e+01</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>10</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>42928</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s"/>
-      <c r="B46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s"/>
-      <c r="B47" s="6">
-        <v>1</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>25</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49">
         <v>11</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>42935</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s"/>
-      <c r="B50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s"/>
-      <c r="B51" s="6">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>29</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53">
         <v>12</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>42935</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="4">
         <v>83</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s"/>
-      <c r="B54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="B54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s"/>
-      <c r="B55" s="6">
-        <v>1</v>
-      </c>
-      <c r="C55" s="6" t="s">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>110</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s"/>
-      <c r="B56" s="6">
+      <c r="B56">
         <v>2</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>-2.7e+01</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58">
         <v>13</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>42937</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="4">
         <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s"/>
-      <c r="B59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s"/>
-      <c r="B60" s="6">
-        <v>1</v>
-      </c>
-      <c r="C60" s="6" t="s">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>29</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s"/>
-      <c r="B61" s="6">
+      <c r="B61">
         <v>2</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <v>25</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="D62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63">
         <v>14</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>42927</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="4">
         <v>679</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s"/>
-      <c r="B64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s"/>
-      <c r="B65" s="6">
-        <v>1</v>
-      </c>
-      <c r="C65" s="6" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="6">
         <v>679</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="5" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="66"/>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="8" t="s"/>
+      <c r="C67" s="8" t="s"/>
+      <c r="D67" s="8" t="s"/>
+      <c r="E67" s="9">
+        <v>1722</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A67:D67"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
